--- a/hdv.xlsx
+++ b/hdv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DFC0BC-059E-45F8-8729-FE289B56FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260BC026-C6D0-4B4F-B25D-2F6E8331A9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="-14850" windowWidth="15375" windowHeight="7785" xr2:uid="{D37A654E-6120-4938-A991-5370F15C2E3A}"/>
+    <workbookView xWindow="-3480" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D37A654E-6120-4938-A991-5370F15C2E3A}"/>
   </bookViews>
   <sheets>
     <sheet name="NIBP" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t>REGISTRO DE CAPACITACIÓN</t>
   </si>
@@ -129,25 +129,7 @@
     <t>X. ACCESORIOS</t>
   </si>
   <si>
-    <t xml:space="preserve">ANUAL    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI </t>
-  </si>
-  <si>
     <t>CADA TRES MESES</t>
-  </si>
-  <si>
-    <t>CLASE III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASE IIB  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASE IA </t>
   </si>
   <si>
     <t>CLASE I</t>
@@ -358,30 +340,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FORMA DE ADQUISICIÓN: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1. Compra                   2. Donación           3.Incautación                              </t>
-    </r>
-  </si>
-  <si>
     <t>NOMBRE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMA DE ADQUISICIÓN: </t>
   </si>
 </sst>
 </file>
@@ -505,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -733,17 +695,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -767,7 +718,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -797,15 +748,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -826,9 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -847,15 +786,189 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,17 +981,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,188 +1002,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1090,415 +1032,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>704851</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766D4BC9-7D03-48A3-99BB-6EB5D05AECA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5983289" y="3087689"/>
-          <a:ext cx="271462" cy="212724"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CO" sz="1100"/>
-            <a:t>X</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDC31BA-3710-480C-9E1A-08820ED42CFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6762751" y="2324102"/>
-          <a:ext cx="195261" cy="155573"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>852487</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AA2ACD-2EB6-4DF4-A625-7A57A5CCB439}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334376" y="3100388"/>
-          <a:ext cx="185736" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>620713</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>769938</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>188912</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DA9B47-CB3B-470F-A1EE-C035AAAF006A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1477963" y="7596187"/>
-          <a:ext cx="149225" cy="141288"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>327024</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>488949</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>187324</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectángulo 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22223F2-A090-4978-9E0A-8B529F933CA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6880224" y="6330950"/>
-          <a:ext cx="161925" cy="142874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectángulo 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95207C2E-B8D1-4BB1-97D7-F2363C98EFDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6540501" y="7577137"/>
-          <a:ext cx="190500" cy="177801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectángulo 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14423152-3DF3-43E8-8DD6-BF0B49A20042}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7915275" y="6315075"/>
-          <a:ext cx="161925" cy="142874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2096,180 +1629,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>39687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectángulo 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0F78BE-7F1D-4C10-A034-04BB56CDAC98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2289175" y="6326187"/>
-          <a:ext cx="149225" cy="141288"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>674688</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>823913</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>173038</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectángulo 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D716175-CB3E-4323-80C9-005B1D8D488F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3132138" y="6318250"/>
-          <a:ext cx="139700" cy="141288"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>39687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectángulo 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068AAE42-B1C5-41F6-B819-B9221D6DB27D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="523875" y="6326187"/>
-          <a:ext cx="158750" cy="142876"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-CO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2572,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D58CF3-CE8E-4564-975D-1909A757D3AF}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="130" zoomScaleNormal="118" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:G64"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScale="130" zoomScaleNormal="118" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,15 +1953,15 @@
       <c r="A1" s="13"/>
       <c r="B1" s="12"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -2610,16 +1969,16 @@
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -2628,649 +1987,637 @@
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="63"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
+      <c r="A4" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="A5" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="F13" s="102"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="95"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-    </row>
-    <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="22"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
+      <c r="A22" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="76"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="82"/>
-      <c r="J23" s="20"/>
+      <c r="A23" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="80"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="20"/>
+      <c r="A24" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="64"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="80"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="A25" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="83" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F25" s="84"/>
-      <c r="G25" s="19"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="I25" s="80"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
+      <c r="A26" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
+      <c r="A27" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
+      <c r="A28" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
+      <c r="A29" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
+      <c r="A30" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="64"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
+      <c r="A31" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="40"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="95"/>
     </row>
     <row r="33" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="71"/>
+      <c r="A33" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="15" t="s">
+      <c r="A34" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="96" t="s">
         <v>34</v>
       </c>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="98"/>
     </row>
     <row r="35" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="49" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="51"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="70"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="49" t="s">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="70"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="49" t="s">
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="70"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="89"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="51"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="70"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="70"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="51"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="70"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52" t="s">
+      <c r="B43" s="101"/>
+      <c r="C43" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52" t="s">
+      <c r="D43" s="101"/>
+      <c r="E43" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52" t="s">
+      <c r="F43" s="101"/>
+      <c r="G43" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52" t="s">
+      <c r="H43" s="101"/>
+      <c r="I43" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="52"/>
+      <c r="J43" s="101"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
@@ -3313,15 +2660,15 @@
       <c r="A49" s="13"/>
       <c r="B49" s="12"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="55"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40"/>
     </row>
     <row r="50" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
@@ -3329,16 +2676,16 @@
       <c r="D50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="62" t="s">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="63"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
@@ -3347,37 +2694,37 @@
       <c r="D51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="62" t="s">
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="63"/>
+      <c r="J51" s="48"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="48"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="89"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="92"/>
       <c r="H53" s="3" t="s">
         <v>6</v>
       </c>
@@ -3389,207 +2736,212 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="92"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="92"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="92"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="92"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="92"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="92"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="92"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="92"/>
       <c r="H61" s="1"/>
       <c r="I61" s="2"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="92"/>
       <c r="H62" s="1"/>
       <c r="I62" s="2"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="92"/>
       <c r="H63" s="1"/>
       <c r="I63" s="2"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="92"/>
       <c r="H64" s="1"/>
       <c r="I64" s="2"/>
       <c r="J64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="E2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:J11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
+  <mergeCells count="121">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:G31"/>
@@ -3614,53 +2966,52 @@
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:J11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>

--- a/hdv.xlsx
+++ b/hdv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backend_fastapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260BC026-C6D0-4B4F-B25D-2F6E8331A9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B435CDF0-8866-4610-AAE0-9E40BE3446A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3480" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D37A654E-6120-4938-A991-5370F15C2E3A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>REGISTRO DE CAPACITACIÓN</t>
   </si>
@@ -208,29 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve">              IV. REGISTRO TÉCNICO DE INSTALACIÓN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FABRICANTE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: CHINA.</t>
-    </r>
   </si>
   <si>
     <t>PROVEEDOR:</t>
@@ -344,6 +321,32 @@
   </si>
   <si>
     <t xml:space="preserve">FORMA DE ADQUISICIÓN: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FABRICANTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>CHINA.</t>
   </si>
 </sst>
 </file>
@@ -792,6 +795,90 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,51 +888,78 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,15 +969,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -891,125 +999,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1931,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D58CF3-CE8E-4564-975D-1909A757D3AF}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScale="130" zoomScaleNormal="118" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:J34"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="130" zoomScaleNormal="118" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,15 +1956,15 @@
       <c r="A1" s="13"/>
       <c r="B1" s="12"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -1969,16 +1972,16 @@
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="47" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="48"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -1987,241 +1990,241 @@
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="73"/>
+    </row>
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+    </row>
+    <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="95"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="29"/>
       <c r="H15" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="54" t="s">
+      <c r="A16" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="83"/>
       <c r="G16" s="25"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="54" t="s">
+      <c r="A17" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="68"/>
+      <c r="A18" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
@@ -2230,38 +2233,40 @@
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="54" t="s">
+      <c r="A19" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="101"/>
       <c r="H20" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
+        <v>90</v>
+      </c>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -2276,348 +2281,348 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="64" t="s">
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="64"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="79" t="s">
+      <c r="H23" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="80"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="64" t="s">
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="64"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="80"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="83" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="84"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="85" t="s">
+      <c r="H25" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="80"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="82" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="95"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="74" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="31" t="s">
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="96" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="98"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="36" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="70"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="36" t="s">
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="70"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="36" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="70"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="46"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="70"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="49"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="70"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="70"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101" t="s">
+      <c r="D43" s="50"/>
+      <c r="E43" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101" t="s">
+      <c r="F43" s="50"/>
+      <c r="G43" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101" t="s">
+      <c r="H43" s="50"/>
+      <c r="I43" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="101"/>
+      <c r="J43" s="50"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
@@ -2660,15 +2665,15 @@
       <c r="A49" s="13"/>
       <c r="B49" s="12"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="53"/>
     </row>
     <row r="50" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
@@ -2676,16 +2681,16 @@
       <c r="D50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="47" t="s">
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="48"/>
+      <c r="J50" s="73"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
@@ -2694,37 +2699,37 @@
       <c r="D51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47" t="s">
+      <c r="E51" s="69"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="48"/>
+      <c r="J51" s="73"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="89"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="92"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2736,259 +2741,161 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="92"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="92"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="92"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="90" t="s">
+      <c r="A57" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="92"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="38"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="90" t="s">
+      <c r="A58" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="92"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="92"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="92"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="90" t="s">
+      <c r="A61" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="91"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="92"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
       <c r="H61" s="1"/>
       <c r="I61" s="2"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="92"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
       <c r="H62" s="1"/>
       <c r="I62" s="2"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="90" t="s">
+      <c r="A63" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="92"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
       <c r="H63" s="1"/>
       <c r="I63" s="2"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="90" t="s">
+      <c r="A64" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="91"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-      <c r="F64" s="91"/>
-      <c r="G64" s="92"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
       <c r="H64" s="1"/>
       <c r="I64" s="2"/>
       <c r="J64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
+  <mergeCells count="119">
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="A13:B13"/>
@@ -3012,6 +2919,102 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
